--- a/Descargas/R15_12º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_12º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="B71" s="65">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
